--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2330.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2330.xlsx
@@ -351,7 +351,7 @@
         <v>2.150228108821445</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>1.684493107505016</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2330.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2330.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.150228108821445</v>
+        <v>0.9806088209152222</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.243554830551147</v>
       </c>
       <c r="C1">
-        <v>1.684493107505016</v>
+        <v>1.068673133850098</v>
       </c>
       <c r="D1">
-        <v>0.7794670711168635</v>
+        <v>1.104182839393616</v>
       </c>
       <c r="E1">
-        <v>0.5576038582472977</v>
+        <v>1.235699772834778</v>
       </c>
     </row>
   </sheetData>
